--- a/prod_HOT.xlsx
+++ b/prod_HOT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCEB035A-5B55-4F24-B622-65E52B031194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546DFF83-556E-4124-809C-F01454F26AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F7720BA4-FA48-4863-BA12-4F2ECDF9D082}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{F7720BA4-FA48-4863-BA12-4F2ECDF9D082}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_______________________r" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -64,9 +63,9 @@
     <definedName name="__123Graph_CTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_D" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_D" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_DCURRENT" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_E" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_E" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_ECURRENT" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_X" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XCAFCAC" hidden="1">[1]export!#REF!</definedName>
@@ -74,38 +73,38 @@
     <definedName name="__123Graph_XTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="_123graph_b" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="_123graph_b" hidden="1">[3]A!#REF!</definedName>
     <definedName name="_12no" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_Fill1" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" hidden="1">[5]C!$P$428:$T$428</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1">[4]C!$P$428:$T$428</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_new1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Int" hidden="1">1</definedName>
-    <definedName name="_Regression_Out" hidden="1">[5]C!$AK$18:$AK$18</definedName>
-    <definedName name="_Regression_X" hidden="1">[5]C!$AK$11:$AU$11</definedName>
-    <definedName name="_Regression_Y" hidden="1">[5]C!$AK$10:$AU$10</definedName>
+    <definedName name="_Regression_Out" hidden="1">[4]C!$AK$18:$AK$18</definedName>
+    <definedName name="_Regression_X" hidden="1">[4]C!$AK$11:$AU$11</definedName>
+    <definedName name="_Regression_Y" hidden="1">[4]C!$AK$10:$AU$10</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="ACwvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="ACwvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="awea" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="cashplan" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="CRES" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="CRISa" hidden="1">[7]A!#REF!</definedName>
+    <definedName name="CRISa" hidden="1">[6]A!#REF!</definedName>
     <definedName name="e" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferes1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferges" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="graphe" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="graphe" hidden="1">[2]E!#REF!</definedName>
     <definedName name="kol" hidden="1">#REF!</definedName>
     <definedName name="KONAN" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="kossi" hidden="1">#REF!</definedName>
     <definedName name="new" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="nnnnnnnnnnn" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="pol" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="pol" hidden="1">[3]A!#REF!</definedName>
     <definedName name="popl" hidden="1">#REF!</definedName>
     <definedName name="PROJA" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="q" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -113,7 +112,7 @@
     <definedName name="rtre" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="Rwvu.Print." hidden="1">#N/A</definedName>
     <definedName name="s" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="Swvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="Swvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="tenou" hidden="1">#REF!</definedName>
     <definedName name="tyi" hidden="1">#REF!</definedName>
     <definedName name="wrn.Main._.Economic._.Indicators." hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -317,268 +316,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
-      <sheetName val="Tables du Contenu"/>
-      <sheetName val="Indications"/>
-      <sheetName val="MAP"/>
-      <sheetName val="Data_Eviews"/>
-      <sheetName val="Ind_rel_Prod_CST (2)"/>
-      <sheetName val="Resultats _Reg_Coef"/>
-      <sheetName val="Resultats _Reg_Filted"/>
-      <sheetName val="Resultats _Reg_Resid"/>
-      <sheetName val="Resultats_Ind_Forecast"/>
-      <sheetName val="Data Indicateurs_Trim"/>
-      <sheetName val="AGV_CNA"/>
-      <sheetName val="Feuil1"/>
-      <sheetName val="Feuil2"/>
-      <sheetName val="AGV_IND"/>
-      <sheetName val="AGV_ETALONNAGE"/>
-      <sheetName val="AGV_RESIDUS"/>
-      <sheetName val="AGV_CALAGE"/>
-      <sheetName val="AVG_PREVISION"/>
-      <sheetName val="AEX_CNA"/>
-      <sheetName val="AEX_IND"/>
-      <sheetName val="AEX_ETALONNAGE"/>
-      <sheetName val="AEX_RESIDUS"/>
-      <sheetName val="AEX_CALAGE"/>
-      <sheetName val="AEX_PREVISION"/>
-      <sheetName val="ELE_CNA"/>
-      <sheetName val="ELE_CALAGE"/>
-      <sheetName val="ELE_PREVISION"/>
-      <sheetName val="SYL_CNA"/>
-      <sheetName val="SYL_CALAGE"/>
-      <sheetName val="SYL_PREVISION"/>
-      <sheetName val="EXT_CNA"/>
-      <sheetName val="EXT_IND"/>
-      <sheetName val="EXT_ETALONNAGE"/>
-      <sheetName val="EXT_RESIDUS"/>
-      <sheetName val="EXT_CALAGE"/>
-      <sheetName val="EXT_PREVISION"/>
-      <sheetName val="AUI_CNA"/>
-      <sheetName val="AUI_IND"/>
-      <sheetName val="AUI_ETALONNAGE"/>
-      <sheetName val="AUI_RESIDUS"/>
-      <sheetName val="AUI_CALAGE"/>
-      <sheetName val="AUI_PREVISION"/>
-      <sheetName val="RAF_CNA"/>
-      <sheetName val="RAF_IND"/>
-      <sheetName val="RAF_ETALONNAGE"/>
-      <sheetName val="RAF_RESIDUS"/>
-      <sheetName val="RAF_CALAGE"/>
-      <sheetName val="RAF_PREVISION"/>
-      <sheetName val="ENE_CNA"/>
-      <sheetName val="ENE_IND"/>
-      <sheetName val="ENE_ETALONNAGE"/>
-      <sheetName val="ENE_RESIDUS"/>
-      <sheetName val="ENE_CALAGE"/>
-      <sheetName val="ENE_PREVISION"/>
-      <sheetName val="IAA_CNA"/>
-      <sheetName val="IAA_IND"/>
-      <sheetName val="IAA_ETALONNAGE"/>
-      <sheetName val="IAA_RESIDUS"/>
-      <sheetName val="IAA_CALAGE"/>
-      <sheetName val="IAA_PREVISION"/>
-      <sheetName val="BFA_CNA"/>
-      <sheetName val="BFA_IND"/>
-      <sheetName val="BFA_ETALONNAGE"/>
-      <sheetName val="BFA_RESIDUS"/>
-      <sheetName val="BFA_CALAGE"/>
-      <sheetName val="BFA_PREVISION"/>
-      <sheetName val="BTP_CNA"/>
-      <sheetName val="BTP_IND"/>
-      <sheetName val="BTP_ETALONNAGE"/>
-      <sheetName val="BTP_RESIDUS"/>
-      <sheetName val="BTP_CALAGE"/>
-      <sheetName val="BTP_PREVISION"/>
-      <sheetName val="COM_CNA"/>
-      <sheetName val="COM_IND"/>
-      <sheetName val="COM_ETALONNAGE"/>
-      <sheetName val="COM_RESIDUS"/>
-      <sheetName val="COM_CALAGE"/>
-      <sheetName val="COM_PREVISION"/>
-      <sheetName val="HOT_CNA"/>
-      <sheetName val="HOT_IND"/>
-      <sheetName val="HOT_ETALONNAGE"/>
-      <sheetName val="HOT_RESIDUS"/>
-      <sheetName val="HOT_CALAGE"/>
-      <sheetName val="HOT_PREVISION"/>
-      <sheetName val="TEL_CNA"/>
-      <sheetName val="TEL_IND"/>
-      <sheetName val="TEL_ETALONNAGE"/>
-      <sheetName val="TEL_RESIDUS"/>
-      <sheetName val="TEL_CALAGE"/>
-      <sheetName val="TEL_PREVISION"/>
-      <sheetName val="TRA_CNA"/>
-      <sheetName val="TRA_IND"/>
-      <sheetName val="TRA_ETALONNAGE"/>
-      <sheetName val="TRA_RESIDUS"/>
-      <sheetName val="TRA_CALAGE"/>
-      <sheetName val="TRA_PREVISION"/>
-      <sheetName val="AUS_CNA"/>
-      <sheetName val="AUS_IND"/>
-      <sheetName val="AUS_ETALONNAGE"/>
-      <sheetName val="AUS_RESIDUS"/>
-      <sheetName val="AUS_CALAGE"/>
-      <sheetName val="AUS_PREVISION"/>
-      <sheetName val="APU_CNA"/>
-      <sheetName val="APU_IND"/>
-      <sheetName val="APU_ETALONNAGE"/>
-      <sheetName val="APU_RESIDUS"/>
-      <sheetName val="APU_CALAGE"/>
-      <sheetName val="APU_PREVISION"/>
-      <sheetName val="DTX_CNA"/>
-      <sheetName val="DTX_IND"/>
-      <sheetName val="DTX_ETALONNAGE"/>
-      <sheetName val="DTX_RESIDUS"/>
-      <sheetName val="DTX_CALAGE"/>
-      <sheetName val="DTX_PREVISION"/>
-      <sheetName val="FRANCS CST_2015_op1"/>
-      <sheetName val="FRANCS CST_2015_op2"/>
-      <sheetName val="Option"/>
-      <sheetName val="FRANCS CST_2015"/>
-      <sheetName val="FRANCS CST_2015_Croissance"/>
-      <sheetName val="FRANCS CST_2015_Contributions"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-      <sheetData sheetId="111"/>
-      <sheetData sheetId="112"/>
-      <sheetData sheetId="113"/>
-      <sheetData sheetId="114"/>
-      <sheetData sheetId="115"/>
-      <sheetData sheetId="116"/>
-      <sheetData sheetId="117"/>
-      <sheetData sheetId="118"/>
-      <sheetData sheetId="119"/>
-      <sheetData sheetId="120"/>
-      <sheetData sheetId="121"/>
-      <sheetData sheetId="122"/>
-      <sheetData sheetId="123"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -791,7 +528,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -912,7 +649,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1212,7 +949,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1275,7 +1012,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1728,7 +1465,7 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
@@ -1957,8 +1694,8 @@
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2752,7 +2489,8 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>12013.450439699442</v>
+        <f>B100</f>
+        <v>479904.86140073417</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
